--- a/ApoER2 colocalization.xlsx
+++ b/ApoER2 colocalization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\membrane_detection\Membrane_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8269553F-E1E3-4047-A6EC-C2B9387719F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E65BF4D-1D57-4DA5-91F1-58DF06898538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,13 +58,13 @@
     <t>N</t>
   </si>
   <si>
-    <t>Cell number</t>
-  </si>
-  <si>
     <t>cell genotype</t>
   </si>
   <si>
     <t>IOD</t>
+  </si>
+  <si>
+    <t>cell number</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:H834"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,13 +452,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
@@ -467,7 +467,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/ApoER2 colocalization.xlsx
+++ b/ApoER2 colocalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\membrane_detection\Membrane_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E65BF4D-1D57-4DA5-91F1-58DF06898538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FCE63B-6C3A-420C-872A-283E889B8EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
